--- a/docs/odh/shr-core-StageInformation-model.xlsx
+++ b/docs/odh/shr-core-StageInformation-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$5</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Path</t>
   </si>
@@ -150,14 +150,30 @@
     <t>A code representing the current stage of a disease.</t>
   </si>
   <si>
-    <t>shr-core-StageInformation-model.stageDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+    <t>shr-core-StageInformation-model.stageDetail[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport-model]]}
 </t>
   </si>
   <si>
     <t>The full staging information</t>
+  </si>
+  <si>
+    <t>shr-core-StageInformation-model.type</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+</t>
   </si>
 </sst>
 </file>
@@ -306,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -325,7 +341,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.4921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="48.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -339,8 +355,8 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.52734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -748,8 +764,103 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI4">
+  <autoFilter ref="A1:AI5">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -759,7 +870,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI3">
+  <conditionalFormatting sqref="A2:AI4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
